--- a/SuppXLS/Scen_UC_NUC_MaxCAP.xlsx
+++ b/SuppXLS/Scen_UC_NUC_MaxCAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_009\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Model_Training_Adv\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C84A30E-9216-4684-9108-18D05899A6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E794615B-5117-45B0-AD24-35845BE5A477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="1995" windowWidth="17295" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10632" yWindow="3648" windowWidth="12408" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TFILL_NUC" sheetId="15" r:id="rId1"/>
@@ -1067,16 +1067,16 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -1158,25 +1158,25 @@
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -1220,7 +1220,7 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -1242,7 +1242,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1264,7 +1264,7 @@
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="10" t="s">
         <v>1</v>
@@ -1312,7 +1312,7 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="14" t="s">
         <v>29</v>
@@ -1354,7 +1354,7 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
@@ -1387,7 +1387,7 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
